--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.3539136064221</v>
+        <v>12.455024</v>
       </c>
       <c r="H2">
-        <v>12.3539136064221</v>
+        <v>24.910048</v>
       </c>
       <c r="I2">
-        <v>0.2308260573234354</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J2">
-        <v>0.2308260573234354</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.26061079068578</v>
+        <v>0.008382333333333334</v>
       </c>
       <c r="N2">
-        <v>2.26061079068578</v>
+        <v>0.025147</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.00230362653310207</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003451464357217434</v>
       </c>
       <c r="Q2">
-        <v>27.92739040587768</v>
+        <v>0.1044021628426667</v>
       </c>
       <c r="R2">
-        <v>27.92739040587768</v>
+        <v>0.6264129770560001</v>
       </c>
       <c r="S2">
-        <v>0.2308260573234354</v>
+        <v>0.0004924662794103544</v>
       </c>
       <c r="T2">
-        <v>0.2308260573234354</v>
+        <v>0.0005341021328769144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.7939710241268</v>
+        <v>12.455024</v>
       </c>
       <c r="H3">
-        <v>28.7939710241268</v>
+        <v>24.910048</v>
       </c>
       <c r="I3">
-        <v>0.537999456522777</v>
+        <v>0.2137786973425757</v>
       </c>
       <c r="J3">
-        <v>0.537999456522777</v>
+        <v>0.1547465300518145</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26061079068578</v>
+        <v>3.630373</v>
       </c>
       <c r="N3">
-        <v>2.26061079068578</v>
+        <v>7.260746</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9976963734668979</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9965485356427827</v>
       </c>
       <c r="Q3">
-        <v>65.09196160383473</v>
+        <v>45.216382843952</v>
       </c>
       <c r="R3">
-        <v>65.09196160383473</v>
+        <v>180.865531375808</v>
       </c>
       <c r="S3">
-        <v>0.537999456522777</v>
+        <v>0.2132862310631654</v>
       </c>
       <c r="T3">
-        <v>0.537999456522777</v>
+        <v>0.1542124279189377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.049762642593</v>
+        <v>32.753573</v>
       </c>
       <c r="H4">
-        <v>11.049762642593</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I4">
-        <v>0.2064587163555708</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J4">
-        <v>0.2064587163555708</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.26061079068578</v>
+        <v>0.008382333333333334</v>
       </c>
       <c r="N4">
-        <v>2.26061079068578</v>
+        <v>0.025147</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.00230362653310207</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.003451464357217434</v>
       </c>
       <c r="Q4">
-        <v>24.97921266436236</v>
+        <v>0.2745513667436666</v>
       </c>
       <c r="R4">
-        <v>24.97921266436236</v>
+        <v>2.470962300693</v>
       </c>
       <c r="S4">
-        <v>0.2064587163555708</v>
+        <v>0.001295062155858185</v>
       </c>
       <c r="T4">
-        <v>0.2064587163555708</v>
+        <v>0.00210683093006963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.32279903033454</v>
+        <v>32.753573</v>
       </c>
       <c r="H5">
-        <v>1.32279903033454</v>
+        <v>98.26071899999999</v>
       </c>
       <c r="I5">
-        <v>0.02471576979821667</v>
+        <v>0.5621840768235339</v>
       </c>
       <c r="J5">
-        <v>0.02471576979821667</v>
+        <v>0.6104165397692691</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26061079068578</v>
+        <v>3.630373</v>
       </c>
       <c r="N5">
-        <v>2.26061079068578</v>
+        <v>7.260746</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9976963734668979</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9965485356427827</v>
       </c>
       <c r="Q5">
-        <v>2.990333761882948</v>
+        <v>118.907687072729</v>
       </c>
       <c r="R5">
-        <v>2.990333761882948</v>
+        <v>713.446122436374</v>
       </c>
       <c r="S5">
-        <v>0.02471576979821667</v>
+        <v>0.5608890146676757</v>
       </c>
       <c r="T5">
-        <v>0.02471576979821667</v>
+        <v>0.6083097088391995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H6">
+        <v>35.091179</v>
+      </c>
+      <c r="I6">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J6">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.008382333333333334</v>
+      </c>
+      <c r="N6">
+        <v>0.025147</v>
+      </c>
+      <c r="O6">
+        <v>0.00230362653310207</v>
+      </c>
+      <c r="P6">
+        <v>0.003451464357217434</v>
+      </c>
+      <c r="Q6">
+        <v>0.09804865314588888</v>
+      </c>
+      <c r="R6">
+        <v>0.8824378783129999</v>
+      </c>
+      <c r="S6">
+        <v>0.000462496696440268</v>
+      </c>
+      <c r="T6">
+        <v>0.000752398130628475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.69705966666667</v>
+      </c>
+      <c r="H7">
+        <v>35.091179</v>
+      </c>
+      <c r="I7">
+        <v>0.2007689570311854</v>
+      </c>
+      <c r="J7">
+        <v>0.2179938868715589</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.630373</v>
+      </c>
+      <c r="N7">
+        <v>7.260746</v>
+      </c>
+      <c r="O7">
+        <v>0.9976963734668979</v>
+      </c>
+      <c r="P7">
+        <v>0.9965485356427827</v>
+      </c>
+      <c r="Q7">
+        <v>42.46468959325566</v>
+      </c>
+      <c r="R7">
+        <v>254.788137559534</v>
+      </c>
+      <c r="S7">
+        <v>0.2003064603347451</v>
+      </c>
+      <c r="T7">
+        <v>0.2172414887409305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.3556395</v>
+      </c>
+      <c r="H8">
+        <v>2.711279</v>
+      </c>
+      <c r="I8">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J8">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.008382333333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.025147</v>
+      </c>
+      <c r="O8">
+        <v>0.00230362653310207</v>
+      </c>
+      <c r="P8">
+        <v>0.003451464357217434</v>
+      </c>
+      <c r="Q8">
+        <v>0.01136342216883333</v>
+      </c>
+      <c r="R8">
+        <v>0.06818053301300001</v>
+      </c>
+      <c r="S8">
+        <v>5.360140139326212E-05</v>
+      </c>
+      <c r="T8">
+        <v>5.8133163642414E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.3556395</v>
+      </c>
+      <c r="H9">
+        <v>2.711279</v>
+      </c>
+      <c r="I9">
+        <v>0.02326826880270489</v>
+      </c>
+      <c r="J9">
+        <v>0.01684304330735749</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.630373</v>
+      </c>
+      <c r="N9">
+        <v>7.260746</v>
+      </c>
+      <c r="O9">
+        <v>0.9976963734668979</v>
+      </c>
+      <c r="P9">
+        <v>0.9965485356427827</v>
+      </c>
+      <c r="Q9">
+        <v>4.9214770385335</v>
+      </c>
+      <c r="R9">
+        <v>19.685908154134</v>
+      </c>
+      <c r="S9">
+        <v>0.02321466740131163</v>
+      </c>
+      <c r="T9">
+        <v>0.01678491014371507</v>
       </c>
     </row>
   </sheetData>
